--- a/GB Accounts 2025-26/GB Accounts Company 2026-03-31 (Mar26) Excel 2007/Fixedassets.xlsx
+++ b/GB Accounts 2025-26/GB Accounts Company 2026-03-31 (Mar26) Excel 2007/Fixedassets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony/projects/diy-accounting/GB Accounts 2024-25/GB Accounts Company 2025-03-31 (Mar25) Excel 2007/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony/projects/diy-accounting/GB Accounts 2025-26/GB Accounts Company 2026-03-31 (Mar26) Excel 2007/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDD795D-25E3-0440-A379-7F968831B366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B501CB52-CA9F-CA42-AF49-DDACD2F95A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24560" windowHeight="16980" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Schedule!$A:$G,Schedule!$1:$4</definedName>
@@ -1158,12 +1156,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1213,6 +1205,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -1274,22 +1272,16 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="20">
-          <cell r="EJ20">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11">
         <row r="5">
           <cell r="G5">
@@ -1298,7 +1290,7 @@
         </row>
         <row r="6">
           <cell r="L6">
-            <v>45383</v>
+            <v>45748</v>
           </cell>
         </row>
         <row r="7">
@@ -1306,7 +1298,7 @@
             <v>100</v>
           </cell>
           <cell r="N7">
-            <v>46112</v>
+            <v>46477</v>
           </cell>
         </row>
         <row r="11">
@@ -1317,94 +1309,10 @@
             <v>3000</v>
           </cell>
           <cell r="N11">
-            <v>45747</v>
+            <v>46112</v>
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="OpeningCreditors"/>
-      <sheetName val="Apr"/>
-      <sheetName val="May"/>
-      <sheetName val="Jun"/>
-      <sheetName val="Jul"/>
-      <sheetName val="Aug"/>
-      <sheetName val="Sep"/>
-      <sheetName val="Oct"/>
-      <sheetName val="Nov"/>
-      <sheetName val="Dec"/>
-      <sheetName val="Jan"/>
-      <sheetName val="Feb"/>
-      <sheetName val="Mar"/>
-      <sheetName val="ClosingCreditors"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="OpeningDebtors"/>
-      <sheetName val="Apr"/>
-      <sheetName val="May"/>
-      <sheetName val="Jun"/>
-      <sheetName val="Jul"/>
-      <sheetName val="Aug"/>
-      <sheetName val="Sep"/>
-      <sheetName val="Oct"/>
-      <sheetName val="Nov"/>
-      <sheetName val="Dec"/>
-      <sheetName val="Jan"/>
-      <sheetName val="Feb"/>
-      <sheetName val="Mar"/>
-      <sheetName val="ClosingDebtors"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1921,28 +1829,28 @@
       <c r="E4" s="144"/>
       <c r="F4" s="111">
         <f>D6</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="G4" s="111">
         <f>D6</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="H4" s="124"/>
       <c r="I4" s="137"/>
       <c r="J4" s="111">
         <f>[1]Admin!$N$7</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="K4" s="111">
         <f>J4</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="L4" s="151"/>
       <c r="M4" s="123"/>
       <c r="N4" s="151"/>
       <c r="O4" s="110">
         <f>D6</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="P4" s="119">
         <v>100</v>
@@ -1953,7 +1861,7 @@
       </c>
       <c r="S4" s="110">
         <f>J4</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="T4" s="156"/>
       <c r="U4" s="138"/>
@@ -2001,7 +1909,7 @@
       <c r="C6" s="121"/>
       <c r="D6" s="139">
         <f>[1]Admin!$L$6</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="E6" s="140"/>
       <c r="F6" s="8"/>
@@ -4854,7 +4762,7 @@
       <c r="C57" s="121"/>
       <c r="D57" s="115">
         <f>D6</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="E57" s="18">
         <f>E11+E22+E30+E41+E55</f>
@@ -4962,14 +4870,14 @@
       <c r="C59" s="142"/>
       <c r="D59" s="116">
         <f>D57</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="E59" s="113" t="s">
         <v>59</v>
       </c>
       <c r="F59" s="117">
         <f>J4</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="G59" s="114"/>
       <c r="H59" s="13"/>
@@ -7795,7 +7703,7 @@
       <c r="C110" s="121"/>
       <c r="D110" s="112">
         <f>F59</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="E110" s="18">
         <f>E64+E75+E83+E94+E108</f>
@@ -7998,20 +7906,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="5" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="168"/>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
+      <c r="A1" s="166"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
       <c r="O1" s="70"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -8028,12 +7936,12 @@
       <c r="B2" s="46"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48"/>
-      <c r="E2" s="176" t="s">
+      <c r="E2" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="177"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="179"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="177"/>
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
@@ -8088,20 +7996,20 @@
         <v>3</v>
       </c>
       <c r="F4" s="49"/>
-      <c r="G4" s="165" t="s">
+      <c r="G4" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="166"/>
-      <c r="I4" s="167"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="165"/>
       <c r="J4" s="49"/>
       <c r="K4" s="106" t="s">
         <v>26</v>
       </c>
       <c r="L4" s="49"/>
-      <c r="M4" s="162" t="s">
+      <c r="M4" s="160" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="163"/>
+      <c r="N4" s="161"/>
       <c r="O4" s="71"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -8130,8 +8038,8 @@
       <c r="J5" s="49"/>
       <c r="K5" s="49"/>
       <c r="L5" s="49"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
       <c r="O5" s="71"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -8160,14 +8068,14 @@
       </c>
       <c r="H6" s="158"/>
       <c r="I6" s="158"/>
-      <c r="J6" s="170"/>
+      <c r="J6" s="168"/>
       <c r="K6" s="52">
         <f>Schedule!V11+Schedule!V64</f>
         <v>0</v>
       </c>
       <c r="L6" s="49"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="71"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -8196,14 +8104,14 @@
       </c>
       <c r="H7" s="158"/>
       <c r="I7" s="158"/>
-      <c r="J7" s="170"/>
+      <c r="J7" s="168"/>
       <c r="K7" s="52">
         <f>Schedule!V22+Schedule!V75</f>
         <v>0</v>
       </c>
       <c r="L7" s="49"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
       <c r="O7" s="71"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -8232,14 +8140,14 @@
       </c>
       <c r="H8" s="158"/>
       <c r="I8" s="158"/>
-      <c r="J8" s="170"/>
+      <c r="J8" s="168"/>
       <c r="K8" s="52">
         <f>Schedule!V30+Schedule!V83</f>
         <v>0</v>
       </c>
       <c r="L8" s="49"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
       <c r="O8" s="71"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -8268,14 +8176,14 @@
       </c>
       <c r="H9" s="158"/>
       <c r="I9" s="158"/>
-      <c r="J9" s="170"/>
+      <c r="J9" s="168"/>
       <c r="K9" s="52">
         <f>Schedule!V41+Schedule!V94</f>
         <v>0</v>
       </c>
       <c r="L9" s="49"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
       <c r="O9" s="71"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -8304,14 +8212,14 @@
       </c>
       <c r="H10" s="158"/>
       <c r="I10" s="158"/>
-      <c r="J10" s="170"/>
+      <c r="J10" s="168"/>
       <c r="K10" s="52">
         <f>Schedule!V55+Schedule!V108</f>
         <v>0</v>
       </c>
       <c r="L10" s="49"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
       <c r="O10" s="71"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -8325,29 +8233,29 @@
     </row>
     <row r="11" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="63"/>
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="160"/>
-      <c r="D11" s="161"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="179"/>
       <c r="E11" s="53">
         <f>SUM(E6:E10)</f>
         <v>0</v>
       </c>
       <c r="F11" s="49"/>
-      <c r="G11" s="174" t="s">
+      <c r="G11" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="174"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="175"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="173"/>
       <c r="K11" s="53">
         <f>SUM(K6:K10)</f>
         <v>0</v>
       </c>
       <c r="L11" s="49"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="163"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
       <c r="O11" s="71"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -8372,8 +8280,8 @@
       <c r="J12" s="49"/>
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="163"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
       <c r="O12" s="71"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -8387,29 +8295,29 @@
     </row>
     <row r="13" spans="1:24" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="63"/>
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="161"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="53" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="F13" s="49"/>
-      <c r="G13" s="174" t="s">
+      <c r="G13" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="174"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="175"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="173"/>
       <c r="K13" s="53" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="L13" s="49"/>
-      <c r="M13" s="164"/>
-      <c r="N13" s="164"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="162"/>
       <c r="O13" s="71"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -8434,8 +8342,8 @@
       <c r="J14" s="49"/>
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
-      <c r="M14" s="164"/>
-      <c r="N14" s="164"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
       <c r="O14" s="71"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -8449,31 +8357,31 @@
     </row>
     <row r="15" spans="1:24" s="5" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="63"/>
-      <c r="B15" s="171" t="e">
+      <c r="B15" s="169" t="e">
         <f>IF(E15&gt;0,"Purchases exceed Assets listed on Schedule",IF(E15&lt;0,"Assets listed on Schedule exceed Purchase values","Purchases reconcile with Fixed asset Schedule"))</f>
         <v>#REF!</v>
       </c>
-      <c r="C15" s="172"/>
-      <c r="D15" s="173"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="171"/>
       <c r="E15" s="104" t="e">
         <f>E13-E11</f>
         <v>#REF!</v>
       </c>
       <c r="F15" s="49"/>
-      <c r="G15" s="171" t="e">
+      <c r="G15" s="169" t="e">
         <f>IF(K15&gt;0,"Sales exceed Assets listed on Schedule",IF(K15&lt;0,"Assets listed on Schedule exceed Sales values","Sales reconcile with Fixed asset Schedule"))</f>
         <v>#REF!</v>
       </c>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="173"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="171"/>
       <c r="K15" s="104" t="e">
         <f>K13-K11</f>
         <v>#REF!</v>
       </c>
       <c r="L15" s="49"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
       <c r="O15" s="71"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -8513,8 +8421,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="M4:N15"/>
-    <mergeCell ref="G4:I4"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="G15:J15"/>
@@ -8533,6 +8439,8 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="M4:N15"/>
+    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
